--- a/cl_st2_ph1_eduardo/df_dim2_standardised.xlsx
+++ b/cl_st2_ph1_eduardo/df_dim2_standardised.xlsx
@@ -557,7 +557,7 @@
         <v>7.130481186266095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3263602780684104</v>
+        <v>7.2984457671875</v>
       </c>
       <c r="M2" t="n">
         <v>-0.3709677419354839</v>
@@ -575,7 +575,7 @@
         <v>-1.008620689655172</v>
       </c>
       <c r="R2" t="n">
-        <v>6.813580225883132</v>
+        <v>13.78566571500222</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
         <v>3.926450702575108</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.802816901408451</v>
+        <v>-0.96875</v>
       </c>
       <c r="M3" t="n">
         <v>-0.3709677419354839</v>
@@ -633,7 +633,7 @@
         <v>1.353212092586207</v>
       </c>
       <c r="R3" t="n">
-        <v>11.77267699490396</v>
+        <v>12.60674389631241</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         <v>7.101736658154506</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1048654797987929</v>
+        <v>5.62407700421875</v>
       </c>
       <c r="M4" t="n">
         <v>-0.3709677419354839</v>
@@ -691,7 +691,7 @@
         <v>0.8100902080603449</v>
       </c>
       <c r="R4" t="n">
-        <v>18.19455688243135</v>
+        <v>23.92349936644889</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +731,7 @@
         <v>4.501113298283261</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.802816901408451</v>
+        <v>-0.96875</v>
       </c>
       <c r="M5" t="n">
         <v>-0.3709677419354839</v>
@@ -749,7 +749,7 @@
         <v>-1.008620689655172</v>
       </c>
       <c r="R5" t="n">
-        <v>7.929632512522309</v>
+        <v>8.763699413930761</v>
       </c>
     </row>
     <row r="6">
@@ -789,7 +789,7 @@
         <v>6.688509951931331</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.802816901408451</v>
+        <v>-0.96875</v>
       </c>
       <c r="M6" t="n">
         <v>-0.3709677419354839</v>
@@ -807,7 +807,7 @@
         <v>1.884228187931035</v>
       </c>
       <c r="R6" t="n">
-        <v>4.956027179567416</v>
+        <v>5.790094080975867</v>
       </c>
     </row>
     <row r="7">
@@ -847,7 +847,7 @@
         <v>1.80101102360515</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.802816901408451</v>
+        <v>-0.96875</v>
       </c>
       <c r="M7" t="n">
         <v>-0.3709677419354839</v>
@@ -865,7 +865,7 @@
         <v>-1.008620689655172</v>
       </c>
       <c r="R7" t="n">
-        <v>7.674479565946131</v>
+        <v>8.508546467354579</v>
       </c>
     </row>
   </sheetData>
